--- a/meta/program/BlancoKeyGeneratorKtMessage.xlsx
+++ b/meta/program/BlancoKeyGeneratorKtMessage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoKeyGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA5B059-4161-F34B-9389-1C10CDF5714A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80708475-F046-1947-96F3-58C47F889C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="500" windowWidth="19960" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5060" yWindow="7260" windowWidth="21340" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="message" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
@@ -205,14 +205,6 @@
     <t>○</t>
   </si>
   <si>
-    <t>MBVOJI01</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MBVOJA01</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>【Antタスク】</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -244,22 +236,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>MBVOJI02</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MBVOJI03</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MBVOJI04</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MBVOJI05</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>メタディレクトリ[{0}]が存在しません。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -274,14 +250,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>MBVOJI06</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MBVOJI07</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>クラス名[{0}] kotlinではdata修飾子とabstract修飾子は同時に指定できません。</t>
     <rPh sb="22" eb="25">
       <t xml:space="preserve">シュウショクシ </t>
@@ -298,10 +266,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>MBVOJI08</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>クラス名[{0}] フィールド[{1}]にデフォルト値が設定されていません。</t>
     <rPh sb="28" eb="30">
       <t xml:space="preserve">セッテイ シュウショクシ シュウショクシ ドウジニ シテイ </t>
@@ -309,10 +273,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>MBVOJI09</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>クラス名[{0}] kotlinではdataクラスは必ずfinal扱いとなります。</t>
     <rPh sb="26" eb="27">
       <t xml:space="preserve">カナラズ </t>
@@ -332,6 +292,47 @@
   </si>
   <si>
     <t>blancoKeyGeneratorKtが利用するメッセージ。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MBKGJI01</t>
+  </si>
+  <si>
+    <t>MBKGJI02</t>
+  </si>
+  <si>
+    <t>MBKGJI03</t>
+  </si>
+  <si>
+    <t>MBKGJI04</t>
+  </si>
+  <si>
+    <t>MBKGJI05</t>
+  </si>
+  <si>
+    <t>MBKGJI06</t>
+  </si>
+  <si>
+    <t>MBKGJI07</t>
+  </si>
+  <si>
+    <t>MBKGJI08</t>
+  </si>
+  <si>
+    <t>MBKGJI09</t>
+  </si>
+  <si>
+    <t>MBKGJA01</t>
+  </si>
+  <si>
+    <t>MBKGJA02</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キーバリューストアバケット定義書が存在しません。</t>
+    <rPh sb="7" eb="10">
+      <t xml:space="preserve">テイギショ </t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1246,10 +1247,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1294,7 +1295,7 @@
       </c>
       <c r="B6" s="41"/>
       <c r="C6" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D6" s="14"/>
     </row>
@@ -1304,7 +1305,7 @@
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="6" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D7" s="14"/>
     </row>
@@ -1314,7 +1315,7 @@
       </c>
       <c r="B8" s="44"/>
       <c r="C8" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="7"/>
@@ -1377,23 +1378,23 @@
       <c r="B16" s="28"/>
       <c r="C16" s="22"/>
       <c r="D16" s="29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="30">
-        <f t="shared" ref="A17:A22" si="0">A16+1</f>
+        <f t="shared" ref="A17:A28" si="0">A16+1</f>
         <v>2</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E17" s="9"/>
     </row>
@@ -1403,13 +1404,13 @@
         <v>3</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E18" s="10"/>
     </row>
@@ -1419,13 +1420,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E19" s="10"/>
     </row>
@@ -1435,13 +1436,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E20" s="39"/>
     </row>
@@ -1451,13 +1452,13 @@
         <v>6</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E21" s="39"/>
     </row>
@@ -1467,102 +1468,117 @@
         <v>7</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C22" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E22" s="39"/>
     </row>
     <row r="23" spans="1:5" ht="27.75" customHeight="1">
       <c r="A23" s="30">
-        <f>A22+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C23" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E23" s="39"/>
     </row>
     <row r="24" spans="1:5" ht="27.75" customHeight="1">
       <c r="A24" s="30">
-        <f>A23+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C24" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E24" s="39"/>
     </row>
     <row r="25" spans="1:5" ht="27.75" customHeight="1">
       <c r="A25" s="30">
-        <f>A24+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C25" s="24" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E25" s="39"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="30"/>
+      <c r="A26" s="30">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="B26" s="33"/>
       <c r="C26" s="24"/>
       <c r="D26" s="34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="30">
-        <f>A25+1</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="35"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="11"/>
+      <c r="A28" s="30">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="35"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D23:E23"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
@@ -1571,18 +1587,22 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D22:E22"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>EmbeddedId</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C16:C28" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C16:C29" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>LEVEL</formula1>
     </dataValidation>
   </dataValidations>

--- a/meta/program/BlancoKeyGeneratorKtMessage.xlsx
+++ b/meta/program/BlancoKeyGeneratorKtMessage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoKeyGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80708475-F046-1947-96F3-58C47F889C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{DE30C656-DBDE-A648-89B1-D8B895EE5A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5060" yWindow="7260" windowWidth="21340" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7360" yWindow="1480" windowWidth="21340" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="message" sheetId="6" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <definedName name="LEVEL">config!$D$3:$D$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
@@ -332,6 +333,180 @@
     <t>キーバリューストアバケット定義書が存在しません。</t>
     <rPh sb="7" eb="10">
       <t xml:space="preserve">テイギショ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MBKGJI10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MBKGJI11</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MBKGJI12</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MBKGJI13</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ERROR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラス名[{0}] キー識別子桁数が整数値ではありません。</t>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">ケタスウ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">セイスウ </t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t xml:space="preserve">チ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラス名[{0}] キー最大桁数が整数値ではありません。</t>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">サイダイ </t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t xml:space="preserve">カナラズ アツカイト </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラス名[{0}] レコード分割番号桁数が整数値ではありません。</t>
+    <rPh sb="14" eb="18">
+      <t xml:space="preserve">ブンカツバンゴウ </t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t xml:space="preserve">カナラズ アツカイト </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラス名[{0}] バージョンが整数値ではありません。</t>
+    <rPh sb="24" eb="25">
+      <t xml:space="preserve">カナラズ アツカイト </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MBKGJI14</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラス名[{0}] で「キー一覧」が定義されていません。</t>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">テイギ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MBKGJI15</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MBKGJI16</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラス名[{0}] のキー名[{1}]で「検索部」が定義されていません。</t>
+    <rPh sb="21" eb="24">
+      <t xml:space="preserve">ケンサクブ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">テイギ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラス名[{0}] のキー名[{1}]で指定された項目[{2}] は項目一覧に定義されていません。</t>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">コウモク </t>
+    </rPh>
+    <rPh sb="34" eb="38">
+      <t xml:space="preserve">コウモクイチラｎ </t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">テイギ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MBKGJI17</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラス名[{0}] のキー名[{1}]で指定された項目[{2}] で指定された型[{3}]は使用できません。</t>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">コウモク </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t xml:space="preserve">カタ </t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t xml:space="preserve">シヨウデキマセｎ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MBKGJI18</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラス名[{0}] のキー名[{1}]で指定された項目[{2}] で型や桁数が指定されていません。</t>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">コウモク </t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t xml:space="preserve">カタ </t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">ケタスウ </t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MBKGJI19</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラス名[{0}] のキー名[{1}]で指定された項目[{2}] で指定された桁数[{3}]は整数値ではありません。</t>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">コウモク </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">ケタスウ </t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t xml:space="preserve">セイスウチ </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1247,10 +1422,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1384,7 +1559,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="30">
-        <f t="shared" ref="A17:A28" si="0">A16+1</f>
+        <f>A16+1</f>
         <v>2</v>
       </c>
       <c r="B17" s="31" t="s">
@@ -1400,7 +1575,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A18:A38" si="0">A17+1</f>
         <v>3</v>
       </c>
       <c r="B18" s="31" t="s">
@@ -1526,59 +1701,219 @@
       </c>
       <c r="E25" s="39"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" ht="27.75" customHeight="1">
       <c r="A26" s="30">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="B26" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="39"/>
+    </row>
+    <row r="27" spans="1:5" ht="27.75" customHeight="1">
       <c r="A27" s="30">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B27" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="B27" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="39"/>
+    </row>
+    <row r="28" spans="1:5" ht="27.75" customHeight="1">
       <c r="A28" s="30">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="39"/>
+    </row>
+    <row r="29" spans="1:5" ht="27.75" customHeight="1">
+      <c r="A29" s="30">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="39"/>
+    </row>
+    <row r="30" spans="1:5" ht="27.75" customHeight="1">
+      <c r="A30" s="30">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="39"/>
+    </row>
+    <row r="31" spans="1:5" ht="27.75" customHeight="1">
+      <c r="A31" s="30">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="39"/>
+    </row>
+    <row r="32" spans="1:5" ht="27.75" customHeight="1">
+      <c r="A32" s="30">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="39"/>
+    </row>
+    <row r="33" spans="1:5" ht="27.75" customHeight="1">
+      <c r="A33" s="30">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="39"/>
+    </row>
+    <row r="34" spans="1:5" ht="27.75" customHeight="1">
+      <c r="A34" s="30">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="39"/>
+    </row>
+    <row r="35" spans="1:5" ht="27.75" customHeight="1">
+      <c r="A35" s="30">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="39"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="30">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B36" s="33"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="30">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="30">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B38" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C38" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D38" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="35"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="11"/>
+      <c r="E38" s="10"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="35"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="27">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
@@ -1592,17 +1927,27 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D35:E35"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>EmbeddedId</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C16:C29" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C16:C39" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>LEVEL</formula1>
     </dataValidation>
   </dataValidations>

--- a/meta/program/BlancoKeyGeneratorKtMessage.xlsx
+++ b/meta/program/BlancoKeyGeneratorKtMessage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoKeyGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{DE30C656-DBDE-A648-89B1-D8B895EE5A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91824086-6D1E-B14B-A502-0FACB5A7122D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7360" yWindow="1480" windowWidth="21340" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,6 @@
     <definedName name="LEVEL">config!$D$3:$D$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="88">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
@@ -507,6 +506,113 @@
     </rPh>
     <rPh sb="47" eb="50">
       <t xml:space="preserve">セイスウチ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MBKGJI20</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラス名[{0}] でバケットIDが指定されていません。</t>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MBKGJI21</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラス名[{0}] でバケットID [{1}] は定義されていません。</t>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">テイギ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MBKGJI22</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラス名[{0}] でテーブル番号が定義されていません。</t>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">テイギ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MBKGJI23</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラス名[{0}] で指定されたテーブル番号[{1}]は、バケット [{2}] 内でテーブル（[{3}]）が使用しています。</t>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t xml:space="preserve">ナイデ、 </t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t xml:space="preserve">シヨウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MBKGJI24</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラス名[{0}] のキー名[{1}]でキーの長さが最大長[{2}]を超えて指定されています。</t>
+    <rPh sb="26" eb="29">
+      <t xml:space="preserve">サイダイチョウ </t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t xml:space="preserve">コエテ </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">シテイサレテイマス </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MBKGJI25</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラス名[{0}] テーブル番号が 1 - [{1}] の整数値ではありません。</t>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">バンゴウ </t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t xml:space="preserve">カナラズ アツカイト </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MBKGJI26</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラス名[{0}] のキー名 [{1}] で指定された項目[{2}]の型がbase64の場合、桁数は4の倍数でなければなりません。</t>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">シテイサレタ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">コウモク </t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t xml:space="preserve">カタ </t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">バアイ </t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t xml:space="preserve">ケタスウ </t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t xml:space="preserve">バイスウ </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1422,10 +1528,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1575,7 +1681,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="30">
-        <f t="shared" ref="A18:A38" si="0">A17+1</f>
+        <f t="shared" ref="A18:A45" si="0">A17+1</f>
         <v>3</v>
       </c>
       <c r="B18" s="31" t="s">
@@ -1861,59 +1967,173 @@
       </c>
       <c r="E35" s="39"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" ht="27.75" customHeight="1">
       <c r="A36" s="30">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="34" t="s">
+      <c r="B36" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="39"/>
+    </row>
+    <row r="37" spans="1:5" ht="27.75" customHeight="1">
+      <c r="A37" s="30">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="39"/>
+    </row>
+    <row r="38" spans="1:5" ht="27.75" customHeight="1">
+      <c r="A38" s="30">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="39"/>
+    </row>
+    <row r="39" spans="1:5" ht="27.75" customHeight="1">
+      <c r="A39" s="30">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="39"/>
+    </row>
+    <row r="40" spans="1:5" ht="27.75" customHeight="1">
+      <c r="A40" s="30">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="39"/>
+    </row>
+    <row r="41" spans="1:5" ht="27.75" customHeight="1">
+      <c r="A41" s="30">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="30">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B37" s="33" t="s">
+      <c r="B41" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="39"/>
+    </row>
+    <row r="42" spans="1:5" ht="27.75" customHeight="1">
+      <c r="A42" s="30">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="39"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="30">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B43" s="33"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="10"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B44" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C44" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D44" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="30">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B38" s="33" t="s">
+      <c r="E44" s="10"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="30">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B45" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C45" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="34" t="s">
+      <c r="D45" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="10"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="35"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="11"/>
+      <c r="E45" s="10"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="35"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="34">
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D36:E36"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
@@ -1925,9 +2145,18 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D39:E39"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D22:E22"/>
@@ -1937,17 +2166,13 @@
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>EmbeddedId</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C16:C39" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C16:C46" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>LEVEL</formula1>
     </dataValidation>
   </dataValidations>
